--- a/biology/Botanique/Lycope_rude/Lycope_rude.xlsx
+++ b/biology/Botanique/Lycope_rude/Lycope_rude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycopus asper
 Le Lycope rude (Lycopus asper) (en anglais : rough bugleweed), est une espèce de plantes herbacées vivaces de la famille des Lamiacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace pouvant atteindre 80 cm de haut et même exceptionnellement 1 mètre.
 Ses tiges aériennes sont émises à partir de rhizomes.
@@ -545,9 +559,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le lycope rude est endémique en Amérique du Nord principalement dans tous les états qui bordent les Grands Lacs, au Canada comme aux États-Unis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le lycope rude est endémique en Amérique du Nord principalement dans tous les états qui bordent les Grands Lacs, au Canada comme aux États-Unis.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est considérée susceptible d'être désignée menacée ou vulnérable au Québec vu que la plante est située à la limite nord de sa répartition. Elle est cependant considérée abondante au niveau national et mondial[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est considérée susceptible d'être désignée menacée ou vulnérable au Québec vu que la plante est située à la limite nord de sa répartition. Elle est cependant considérée abondante au niveau national et mondial.
 </t>
         </is>
       </c>
